--- a/web/public/task_object_1.xlsx
+++ b/web/public/task_object_1.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
-  <si>
-    <t>Таблиця 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Показники</t>
   </si>
@@ -131,12 +128,12 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="11"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="11"/>
       <name val="Helvetica Neue Medium"/>
     </font>
   </fonts>
@@ -155,12 +152,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -172,28 +169,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -201,67 +176,22 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -270,13 +200,13 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -285,28 +215,58 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -316,56 +276,47 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -386,11 +337,10 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="ffadadad"/>
       <rgbColor rgb="ff323232"/>
       <rgbColor rgb="ffd6d6d6"/>
+      <rgbColor rgb="ffadadad"/>
       <rgbColor rgb="ffe3e3e3"/>
       <rgbColor rgb="fff4f9f8"/>
     </indexedColors>
@@ -1454,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1464,460 +1414,445 @@
     <col min="11" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="20.3" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="20.3" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s" s="8">
+    <row r="2" ht="20.2" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>10</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="20.2" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s" s="5">
+      <c r="A3" t="s" s="8">
         <v>12</v>
       </c>
+      <c r="B3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" ht="20.2" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="B4" s="12">
-        <v>0.18</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.49</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0.26</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="J4" s="13"/>
+      <c r="B4" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" ht="20.2" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0.99</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s" s="5">
+      <c r="A5" t="s" s="8">
         <v>15</v>
       </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" ht="20.2" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="A6" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="J6" s="13"/>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" ht="20.2" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="A7" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14"/>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" ht="20.2" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0.78</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1</v>
-      </c>
-      <c r="J8" s="13"/>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" ht="20.2" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.32</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="A9" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.28</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
         <v>0.08</v>
       </c>
-      <c r="F9" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J9" t="s" s="5">
-        <v>20</v>
-      </c>
+      <c r="I9" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" ht="20.2" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.28</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="J10" s="13"/>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" ht="20.2" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="A11" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14"/>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s" s="12">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" ht="20.2" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0.99</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s" s="15">
+      <c r="A12" t="s" s="8">
         <v>24</v>
       </c>
+      <c r="B12" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" ht="20.2" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="A13" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="B13" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.52</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14"/>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.14</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s" s="12">
+        <v>26</v>
+      </c>
     </row>
-    <row r="14" ht="20.2" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0.14</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0.38</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s" s="15">
+    <row r="14" ht="20.3" customHeight="1">
+      <c r="A14" t="s" s="13">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" ht="20.3" customHeight="1">
-      <c r="A15" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
         <v>0.24</v>
       </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
         <v>0.98</v>
       </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14"/>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
+  <mergeCells count="5">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
